--- a/data/pca/factorExposure/factorExposure_2017-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009072228597868246</v>
+        <v>0.01341833038535221</v>
       </c>
       <c r="C2">
-        <v>-0.0004988151718562737</v>
+        <v>0.03971668950047792</v>
       </c>
       <c r="D2">
-        <v>-0.02453336304704648</v>
+        <v>-0.02862953391885372</v>
       </c>
       <c r="E2">
-        <v>-0.062938182931589</v>
+        <v>0.02826212242265919</v>
       </c>
       <c r="F2">
-        <v>0.009932651226917596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03283679548197454</v>
+      </c>
+      <c r="G2">
+        <v>-0.01167144323275363</v>
+      </c>
+      <c r="H2">
+        <v>0.01344391679036712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08044039284018532</v>
+        <v>0.0658760657769784</v>
       </c>
       <c r="C3">
-        <v>0.005212537992803683</v>
+        <v>0.07803384357152184</v>
       </c>
       <c r="D3">
-        <v>0.0484537903164749</v>
+        <v>-0.01332530368075086</v>
       </c>
       <c r="E3">
-        <v>-0.2427948154178584</v>
+        <v>0.07590309605636639</v>
       </c>
       <c r="F3">
-        <v>0.07018001115417229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07689522182081415</v>
+      </c>
+      <c r="G3">
+        <v>-0.06465401806299007</v>
+      </c>
+      <c r="H3">
+        <v>0.005342472292027775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03429625521803165</v>
+        <v>0.05760517493867382</v>
       </c>
       <c r="C4">
-        <v>-0.02218113526046472</v>
+        <v>0.06131886191466616</v>
       </c>
       <c r="D4">
-        <v>-0.03430491599268425</v>
+        <v>-0.02148639839590918</v>
       </c>
       <c r="E4">
-        <v>-0.03565034984336195</v>
+        <v>-0.002157761637346191</v>
       </c>
       <c r="F4">
-        <v>-0.02662820657190439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01884612985936004</v>
+      </c>
+      <c r="G4">
+        <v>-0.03717232862678543</v>
+      </c>
+      <c r="H4">
+        <v>-0.02996590414792495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06021027576714692</v>
+        <v>0.03184325903696036</v>
       </c>
       <c r="C6">
-        <v>-0.01522428322298575</v>
+        <v>0.0563041783238941</v>
       </c>
       <c r="D6">
-        <v>-0.05110748581365673</v>
+        <v>-0.0160715539640839</v>
       </c>
       <c r="E6">
-        <v>-0.03007775902667994</v>
+        <v>0.003761866593114456</v>
       </c>
       <c r="F6">
-        <v>-0.04470634971981251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01630074168932677</v>
+      </c>
+      <c r="G6">
+        <v>-0.02096249562813906</v>
+      </c>
+      <c r="H6">
+        <v>-0.007383274070258257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02686049400029111</v>
+        <v>0.01892318731771605</v>
       </c>
       <c r="C7">
-        <v>-0.06908732564409867</v>
+        <v>0.03833071703064433</v>
       </c>
       <c r="D7">
-        <v>0.009288932398529967</v>
+        <v>-0.01232521953254065</v>
       </c>
       <c r="E7">
-        <v>-0.01081842813755968</v>
+        <v>-0.01557414496226285</v>
       </c>
       <c r="F7">
-        <v>0.01568411697545927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0100669622188454</v>
+      </c>
+      <c r="G7">
+        <v>-0.07264859295391415</v>
+      </c>
+      <c r="H7">
+        <v>0.001731895803305061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01275040924147464</v>
+        <v>-0.005215669576356826</v>
       </c>
       <c r="C8">
-        <v>-0.009247553135379144</v>
+        <v>0.01312779128654881</v>
       </c>
       <c r="D8">
-        <v>-0.01477878745184678</v>
+        <v>-0.003856955146907648</v>
       </c>
       <c r="E8">
-        <v>-0.03302014710636955</v>
+        <v>0.01303779590747152</v>
       </c>
       <c r="F8">
-        <v>0.01461600156019721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02439504091127657</v>
+      </c>
+      <c r="G8">
+        <v>-0.02525653997888022</v>
+      </c>
+      <c r="H8">
+        <v>-0.02043035958824391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03042410099770807</v>
+        <v>0.02898050254648883</v>
       </c>
       <c r="C9">
-        <v>-0.01455395970863841</v>
+        <v>0.04236299159252235</v>
       </c>
       <c r="D9">
-        <v>-0.02321150901133294</v>
+        <v>-0.01502300227134261</v>
       </c>
       <c r="E9">
-        <v>-0.05423597327625436</v>
+        <v>-0.0009536245027394223</v>
       </c>
       <c r="F9">
-        <v>-0.02479881330405805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01963863514970081</v>
+      </c>
+      <c r="G9">
+        <v>-0.02821180554241991</v>
+      </c>
+      <c r="H9">
+        <v>0.004310905766155408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0891954616293528</v>
+        <v>0.0835217338938294</v>
       </c>
       <c r="C10">
-        <v>0.03718625576920656</v>
+        <v>-0.184025014856109</v>
       </c>
       <c r="D10">
-        <v>0.1544329913031248</v>
+        <v>0.01944685675390658</v>
       </c>
       <c r="E10">
-        <v>-0.02157441441402064</v>
+        <v>0.01671789840494471</v>
       </c>
       <c r="F10">
-        <v>0.002679794232831519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01325201668770277</v>
+      </c>
+      <c r="G10">
+        <v>-0.03413636866292486</v>
+      </c>
+      <c r="H10">
+        <v>0.02965733365304201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02573748718504129</v>
+        <v>0.03639775782882131</v>
       </c>
       <c r="C11">
-        <v>-0.003431575727526258</v>
+        <v>0.05346095358084299</v>
       </c>
       <c r="D11">
-        <v>-0.04424016248923737</v>
+        <v>-0.0007291500424980576</v>
       </c>
       <c r="E11">
-        <v>-0.01588452405224692</v>
+        <v>-0.006192100791550735</v>
       </c>
       <c r="F11">
-        <v>-0.02286766812002908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02754425782299128</v>
+      </c>
+      <c r="G11">
+        <v>-0.00801836160362757</v>
+      </c>
+      <c r="H11">
+        <v>0.0003048544779444255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03184452087769107</v>
+        <v>0.03576502793253077</v>
       </c>
       <c r="C12">
-        <v>-0.01069197144914561</v>
+        <v>0.0453022680603458</v>
       </c>
       <c r="D12">
-        <v>-0.04149681980048972</v>
+        <v>-0.004958092241977338</v>
       </c>
       <c r="E12">
-        <v>0.008851388860677748</v>
+        <v>-0.01204915319885012</v>
       </c>
       <c r="F12">
-        <v>-0.00384881472952965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.007128956413159022</v>
+      </c>
+      <c r="G12">
+        <v>-0.01346390729999934</v>
+      </c>
+      <c r="H12">
+        <v>0.002598231695934071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02104697156904</v>
+        <v>0.01197498437780806</v>
       </c>
       <c r="C13">
-        <v>-0.0004514738905357682</v>
+        <v>0.03215241040794893</v>
       </c>
       <c r="D13">
-        <v>-0.01411496022973203</v>
+        <v>-0.02446376034723017</v>
       </c>
       <c r="E13">
-        <v>-0.04579944588790675</v>
+        <v>0.0191793593127746</v>
       </c>
       <c r="F13">
-        <v>-0.01134135851376896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03251055671589649</v>
+      </c>
+      <c r="G13">
+        <v>-0.02445631213337054</v>
+      </c>
+      <c r="H13">
+        <v>-0.008790358012821466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01538224295213534</v>
+        <v>0.008792005524484973</v>
       </c>
       <c r="C14">
-        <v>-0.01564000286430107</v>
+        <v>0.02505531114724346</v>
       </c>
       <c r="D14">
-        <v>-0.007067543523861184</v>
+        <v>-0.0080948098643502</v>
       </c>
       <c r="E14">
-        <v>-0.01816974943655798</v>
+        <v>-0.006115705291137108</v>
       </c>
       <c r="F14">
-        <v>0.0230586536084291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.001291719829418403</v>
+      </c>
+      <c r="G14">
+        <v>-0.03143569107500679</v>
+      </c>
+      <c r="H14">
+        <v>-0.01585718948456618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02432821517697254</v>
+        <v>0.03245661695725938</v>
       </c>
       <c r="C16">
-        <v>-0.009237821807203443</v>
+        <v>0.04306546802196022</v>
       </c>
       <c r="D16">
-        <v>-0.04089022933784087</v>
+        <v>-0.000471593736662774</v>
       </c>
       <c r="E16">
-        <v>-0.01669732860135025</v>
+        <v>-0.003873643678005605</v>
       </c>
       <c r="F16">
-        <v>-0.02725283413433468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01545005902377532</v>
+      </c>
+      <c r="G16">
+        <v>-0.01286700261752577</v>
+      </c>
+      <c r="H16">
+        <v>-0.001763477792577705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02439447617687199</v>
+        <v>0.02815969361338959</v>
       </c>
       <c r="C19">
-        <v>-0.006941125552856859</v>
+        <v>0.05540116317173496</v>
       </c>
       <c r="D19">
-        <v>-0.03552623247152287</v>
+        <v>-0.0147675106258482</v>
       </c>
       <c r="E19">
-        <v>-0.05337394510788081</v>
+        <v>0.03268940424188956</v>
       </c>
       <c r="F19">
-        <v>-0.03221309411174053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04332190453451686</v>
+      </c>
+      <c r="G19">
+        <v>-0.03150785888140378</v>
+      </c>
+      <c r="H19">
+        <v>-0.03503608770414946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006635894838299346</v>
+        <v>0.01093608313684038</v>
       </c>
       <c r="C20">
-        <v>-0.002849555107742496</v>
+        <v>0.03493798462403673</v>
       </c>
       <c r="D20">
-        <v>-0.0001704743727662048</v>
+        <v>-0.01289782089420039</v>
       </c>
       <c r="E20">
-        <v>-0.03134898069008417</v>
+        <v>0.01834111936961072</v>
       </c>
       <c r="F20">
-        <v>0.01082335508507047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01021390107547613</v>
+      </c>
+      <c r="G20">
+        <v>-0.02402607858452066</v>
+      </c>
+      <c r="H20">
+        <v>-0.008842556544227394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03837336974346581</v>
+        <v>0.01244255721903278</v>
       </c>
       <c r="C21">
-        <v>-0.02591468526926534</v>
+        <v>0.03444222297952772</v>
       </c>
       <c r="D21">
-        <v>-0.01647334491224814</v>
+        <v>-0.01568880922274284</v>
       </c>
       <c r="E21">
-        <v>-0.02447305263865986</v>
+        <v>0.02322698421529906</v>
       </c>
       <c r="F21">
-        <v>-0.01741306643440094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02181177245030625</v>
+      </c>
+      <c r="G21">
+        <v>-0.04663490208528527</v>
+      </c>
+      <c r="H21">
+        <v>-0.01423244225173828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0230356587775086</v>
+        <v>0.02661016876261251</v>
       </c>
       <c r="C24">
-        <v>-0.006354775196430451</v>
+        <v>0.04651160355028297</v>
       </c>
       <c r="D24">
-        <v>-0.03499694141889629</v>
+        <v>-0.005696002025791911</v>
       </c>
       <c r="E24">
-        <v>-0.01477392859396741</v>
+        <v>-0.009665437998338668</v>
       </c>
       <c r="F24">
-        <v>-0.02356406388763835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02320574872608833</v>
+      </c>
+      <c r="G24">
+        <v>-0.01154517319249239</v>
+      </c>
+      <c r="H24">
+        <v>0.003569463206804661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03795366183474046</v>
+        <v>0.04454626494092219</v>
       </c>
       <c r="C25">
-        <v>-0.004778191501828653</v>
+        <v>0.05175443985212177</v>
       </c>
       <c r="D25">
-        <v>-0.03707279936805321</v>
+        <v>-0.00952050931554251</v>
       </c>
       <c r="E25">
-        <v>-0.02818017199714371</v>
+        <v>-0.01579819133166617</v>
       </c>
       <c r="F25">
-        <v>-0.02785605529867624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01892743469712023</v>
+      </c>
+      <c r="G25">
+        <v>-0.01761965105943651</v>
+      </c>
+      <c r="H25">
+        <v>-0.004590915501859572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00341207702629686</v>
+        <v>0.003184843426085429</v>
       </c>
       <c r="C26">
-        <v>-0.008413314512628002</v>
+        <v>0.008891165988956022</v>
       </c>
       <c r="D26">
-        <v>0.002138653290915573</v>
+        <v>-0.02387411982899655</v>
       </c>
       <c r="E26">
-        <v>-0.03143922500168608</v>
+        <v>0.003613065365384186</v>
       </c>
       <c r="F26">
-        <v>0.0226160520141136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007989389817604796</v>
+      </c>
+      <c r="G26">
+        <v>-0.02311148869415578</v>
+      </c>
+      <c r="H26">
+        <v>-0.007234072858322847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1345462959825609</v>
+        <v>0.1085743596699861</v>
       </c>
       <c r="C28">
-        <v>0.05327047502946712</v>
+        <v>-0.2247357154951929</v>
       </c>
       <c r="D28">
-        <v>0.2231020681107753</v>
+        <v>0.01096713728210656</v>
       </c>
       <c r="E28">
-        <v>-0.008028728244240545</v>
+        <v>0.009120402949739582</v>
       </c>
       <c r="F28">
-        <v>0.008957845249299623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.009500586687237047</v>
+      </c>
+      <c r="G28">
+        <v>-0.04958091562954896</v>
+      </c>
+      <c r="H28">
+        <v>0.0119870268993895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01473724904330422</v>
+        <v>0.01292193595179037</v>
       </c>
       <c r="C29">
-        <v>-0.01165815132384561</v>
+        <v>0.01887465917801617</v>
       </c>
       <c r="D29">
-        <v>-0.008003582025796993</v>
+        <v>-0.006848921148611283</v>
       </c>
       <c r="E29">
-        <v>-0.01770682047803806</v>
+        <v>-0.004175780449101147</v>
       </c>
       <c r="F29">
-        <v>0.02134707663045637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.005216653725600991</v>
+      </c>
+      <c r="G29">
+        <v>-0.02486552584973317</v>
+      </c>
+      <c r="H29">
+        <v>-0.02206530968846475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04414881002920737</v>
+        <v>0.03905090896533725</v>
       </c>
       <c r="C30">
-        <v>0.04042727647295118</v>
+        <v>0.07346927266707498</v>
       </c>
       <c r="D30">
-        <v>-0.07751257000661306</v>
+        <v>-0.02675867020817178</v>
       </c>
       <c r="E30">
-        <v>-0.06539503309304212</v>
+        <v>0.01609673980279102</v>
       </c>
       <c r="F30">
-        <v>-0.006070124631200327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04531871410986653</v>
+      </c>
+      <c r="G30">
+        <v>0.01243780258060668</v>
+      </c>
+      <c r="H30">
+        <v>-0.01044710702355298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04502277028068014</v>
+        <v>0.04261489593226588</v>
       </c>
       <c r="C31">
-        <v>-0.01773800980994425</v>
+        <v>0.02751614048453486</v>
       </c>
       <c r="D31">
-        <v>-0.02338520175379372</v>
+        <v>-0.002360973967161209</v>
       </c>
       <c r="E31">
-        <v>0.002611128655712986</v>
+        <v>-0.01801591600650278</v>
       </c>
       <c r="F31">
-        <v>0.01670073430835608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02824272492342407</v>
+      </c>
+      <c r="G31">
+        <v>-0.02460160921930197</v>
+      </c>
+      <c r="H31">
+        <v>-0.002434525179290181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.00157175485635474</v>
+        <v>0.007829604704095326</v>
       </c>
       <c r="C32">
-        <v>-0.03247695314435776</v>
+        <v>0.03598341297988991</v>
       </c>
       <c r="D32">
-        <v>-0.01985336458543442</v>
+        <v>0.005076219280013346</v>
       </c>
       <c r="E32">
-        <v>-0.01689659258897371</v>
+        <v>0.01564454318801103</v>
       </c>
       <c r="F32">
-        <v>-0.006130151970421482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07563830072310507</v>
+      </c>
+      <c r="G32">
+        <v>-0.05219370514969915</v>
+      </c>
+      <c r="H32">
+        <v>-0.06799631525973603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03369142716434398</v>
+        <v>0.03001240583594028</v>
       </c>
       <c r="C33">
-        <v>0.01375234529494921</v>
+        <v>0.05184593512403225</v>
       </c>
       <c r="D33">
-        <v>-0.03972905213299339</v>
+        <v>-0.01364400145913888</v>
       </c>
       <c r="E33">
-        <v>-0.04155058191721498</v>
+        <v>0.01538289368546487</v>
       </c>
       <c r="F33">
-        <v>0.01997402533784902</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02564827670671114</v>
+      </c>
+      <c r="G33">
+        <v>-0.01465144934030086</v>
+      </c>
+      <c r="H33">
+        <v>0.01764566883182695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02648128582276996</v>
+        <v>0.04703373492020682</v>
       </c>
       <c r="C34">
-        <v>-0.01805565376593991</v>
+        <v>0.05283634892830585</v>
       </c>
       <c r="D34">
-        <v>-0.04114564774550593</v>
+        <v>0.006674205871896013</v>
       </c>
       <c r="E34">
-        <v>-0.01416104115672986</v>
+        <v>-0.01600990520416319</v>
       </c>
       <c r="F34">
-        <v>-0.025387017979435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02359816814226729</v>
+      </c>
+      <c r="G34">
+        <v>-0.0217791789694266</v>
+      </c>
+      <c r="H34">
+        <v>0.001164168591329185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01858208183890476</v>
+        <v>0.01072096839915662</v>
       </c>
       <c r="C36">
-        <v>-0.003890654281068656</v>
+        <v>0.004732246811408164</v>
       </c>
       <c r="D36">
-        <v>-0.001764972359348551</v>
+        <v>-0.01088594763933355</v>
       </c>
       <c r="E36">
-        <v>-0.01624744368041194</v>
+        <v>-0.0008503815054232632</v>
       </c>
       <c r="F36">
-        <v>0.003563175233208233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0007734256212123858</v>
+      </c>
+      <c r="G36">
+        <v>-0.01517928824249338</v>
+      </c>
+      <c r="H36">
+        <v>0.001677816421878286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02276719515133255</v>
+        <v>0.03219863281598533</v>
       </c>
       <c r="C38">
-        <v>-0.002799130783919861</v>
+        <v>0.02288894391911069</v>
       </c>
       <c r="D38">
-        <v>-0.01736445466687691</v>
+        <v>0.008647940337569819</v>
       </c>
       <c r="E38">
-        <v>-0.04161083903215557</v>
+        <v>-0.004481668036125471</v>
       </c>
       <c r="F38">
-        <v>0.002940543286101281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.007953863980662982</v>
+      </c>
+      <c r="G38">
+        <v>-0.02148001533509032</v>
+      </c>
+      <c r="H38">
+        <v>-0.005611184119397664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01750983516245955</v>
+        <v>0.03168078573912322</v>
       </c>
       <c r="C39">
-        <v>-0.01750268155866173</v>
+        <v>0.08344248895244119</v>
       </c>
       <c r="D39">
-        <v>-0.06403411254101929</v>
+        <v>-0.01122746624679769</v>
       </c>
       <c r="E39">
-        <v>-0.04690886394175171</v>
+        <v>0.006310739883231934</v>
       </c>
       <c r="F39">
-        <v>-0.03597062539505706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04166317979391306</v>
+      </c>
+      <c r="G39">
+        <v>-0.01353887946990168</v>
+      </c>
+      <c r="H39">
+        <v>0.01304137079225886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02792183364390081</v>
+        <v>0.0205064237831198</v>
       </c>
       <c r="C40">
-        <v>-0.004289076703790492</v>
+        <v>0.03159686851088041</v>
       </c>
       <c r="D40">
-        <v>-0.04033813395650036</v>
+        <v>-0.01256854039382246</v>
       </c>
       <c r="E40">
-        <v>-0.03686329994028315</v>
+        <v>0.01110806172233685</v>
       </c>
       <c r="F40">
-        <v>-0.03607072034652195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02435678106862262</v>
+      </c>
+      <c r="G40">
+        <v>-0.01517609437766231</v>
+      </c>
+      <c r="H40">
+        <v>0.0003583338425175062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01273716373692871</v>
+        <v>0.01085293206072</v>
       </c>
       <c r="C41">
-        <v>0.001217770694961143</v>
+        <v>-0.002741591213237206</v>
       </c>
       <c r="D41">
-        <v>0.008635973008526658</v>
+        <v>-0.003128678600389085</v>
       </c>
       <c r="E41">
-        <v>-0.005081073663492108</v>
+        <v>-0.008251997573925269</v>
       </c>
       <c r="F41">
-        <v>0.006432126598037918</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0004994693783898521</v>
+      </c>
+      <c r="G41">
+        <v>-0.01024526936929339</v>
+      </c>
+      <c r="H41">
+        <v>-0.001784820077273367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.136181578763881</v>
+        <v>0.04049081735221574</v>
       </c>
       <c r="C42">
-        <v>0.08415891455741641</v>
+        <v>0.05822269640298883</v>
       </c>
       <c r="D42">
-        <v>-0.1589798794069897</v>
+        <v>-0.1034906776592626</v>
       </c>
       <c r="E42">
-        <v>-0.1823906886632927</v>
+        <v>0.07580034650145404</v>
       </c>
       <c r="F42">
-        <v>0.09627520934576282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1263691561504301</v>
+      </c>
+      <c r="G42">
+        <v>0.2330983424090589</v>
+      </c>
+      <c r="H42">
+        <v>0.9244033381727943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01794874391938166</v>
+        <v>0.02674380201526396</v>
       </c>
       <c r="C43">
-        <v>0.002194332355617373</v>
+        <v>0.006277083187294245</v>
       </c>
       <c r="D43">
-        <v>0.004476446438528168</v>
+        <v>-0.003078543709943396</v>
       </c>
       <c r="E43">
-        <v>-0.008423442692558767</v>
+        <v>-0.005395241208017342</v>
       </c>
       <c r="F43">
-        <v>0.01207091914511691</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003196681559973501</v>
+      </c>
+      <c r="G43">
+        <v>-0.01246558414641509</v>
+      </c>
+      <c r="H43">
+        <v>0.000292999159744211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00967754461772149</v>
+        <v>0.01704260091391235</v>
       </c>
       <c r="C44">
-        <v>-0.01131842301839663</v>
+        <v>0.04864451984507612</v>
       </c>
       <c r="D44">
-        <v>-0.01616310323288646</v>
+        <v>-0.006449799899489525</v>
       </c>
       <c r="E44">
-        <v>-0.07200211833348025</v>
+        <v>0.01702612364737747</v>
       </c>
       <c r="F44">
-        <v>-0.00311345404145894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0259380622406251</v>
+      </c>
+      <c r="G44">
+        <v>-0.03006541254451227</v>
+      </c>
+      <c r="H44">
+        <v>0.01451017772104918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007674231367398631</v>
+        <v>0.001226648245676363</v>
       </c>
       <c r="C46">
-        <v>-0.007027903495366208</v>
+        <v>0.0156961505079593</v>
       </c>
       <c r="D46">
-        <v>-0.02490534007793947</v>
+        <v>-0.0114014806597612</v>
       </c>
       <c r="E46">
-        <v>-0.03831743396675807</v>
+        <v>-0.006150817625713408</v>
       </c>
       <c r="F46">
-        <v>0.02600039182880378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.007947373535545687</v>
+      </c>
+      <c r="G46">
+        <v>-0.01897543294796422</v>
+      </c>
+      <c r="H46">
+        <v>-0.02240717538253782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06902459799989959</v>
+        <v>0.07261386309430946</v>
       </c>
       <c r="C47">
-        <v>-0.006615827182301109</v>
+        <v>0.05994225356307896</v>
       </c>
       <c r="D47">
-        <v>-0.0378295221966046</v>
+        <v>0.005678867646893098</v>
       </c>
       <c r="E47">
-        <v>0.03677681991917863</v>
+        <v>-0.02130697538325738</v>
       </c>
       <c r="F47">
-        <v>0.04138637245387339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0600646997811102</v>
+      </c>
+      <c r="G47">
+        <v>-0.01480419473122759</v>
+      </c>
+      <c r="H47">
+        <v>-0.00404275808158045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02784148789054019</v>
+        <v>0.01555396876938768</v>
       </c>
       <c r="C48">
-        <v>-0.004914867640702637</v>
+        <v>0.01038596971693195</v>
       </c>
       <c r="D48">
-        <v>-0.00625225533171955</v>
+        <v>-0.000735173883768899</v>
       </c>
       <c r="E48">
-        <v>-0.01668375203127019</v>
+        <v>-0.007172583722024371</v>
       </c>
       <c r="F48">
-        <v>-3.500463471500132e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01280806553085662</v>
+      </c>
+      <c r="G48">
+        <v>-0.01734547860489201</v>
+      </c>
+      <c r="H48">
+        <v>-0.001680424317221882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07002836147884538</v>
+        <v>0.07634397922076452</v>
       </c>
       <c r="C50">
-        <v>-0.03762417971337648</v>
+        <v>0.06098694120505849</v>
       </c>
       <c r="D50">
-        <v>-0.04827386279401382</v>
+        <v>0.004540737115680603</v>
       </c>
       <c r="E50">
-        <v>0.01006355613148262</v>
+        <v>-0.02147073139630912</v>
       </c>
       <c r="F50">
-        <v>0.0668832506491263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05768998850652704</v>
+      </c>
+      <c r="G50">
+        <v>-0.03868988565157197</v>
+      </c>
+      <c r="H50">
+        <v>-0.00622762238357235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01642586181865493</v>
+        <v>0.0174667011645039</v>
       </c>
       <c r="C51">
-        <v>-0.005639828211726971</v>
+        <v>0.02913552097210495</v>
       </c>
       <c r="D51">
-        <v>0.01548364670281801</v>
+        <v>-0.008592776378008333</v>
       </c>
       <c r="E51">
-        <v>-0.05969598681937632</v>
+        <v>0.008457722240736898</v>
       </c>
       <c r="F51">
-        <v>-0.004406016999047211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03615728002724244</v>
+      </c>
+      <c r="G51">
+        <v>-0.03697568333904649</v>
+      </c>
+      <c r="H51">
+        <v>-0.004282808145641843</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08958647313321319</v>
+        <v>0.09861760621846787</v>
       </c>
       <c r="C53">
-        <v>-0.02662625461066687</v>
+        <v>0.07444519701952901</v>
       </c>
       <c r="D53">
-        <v>-0.06626926614048369</v>
+        <v>0.006838047185471612</v>
       </c>
       <c r="E53">
-        <v>0.06047210740146293</v>
+        <v>-0.04182415461161978</v>
       </c>
       <c r="F53">
-        <v>0.02740465965897834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06724161415434687</v>
+      </c>
+      <c r="G53">
+        <v>-0.01606920019286758</v>
+      </c>
+      <c r="H53">
+        <v>0.003647715678181762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02670101756356877</v>
+        <v>0.02791555323061806</v>
       </c>
       <c r="C54">
-        <v>-0.009253780964828475</v>
+        <v>0.003431947417911436</v>
       </c>
       <c r="D54">
-        <v>-0.000372776945654945</v>
+        <v>0.004633985439383003</v>
       </c>
       <c r="E54">
-        <v>-0.0003292568101524089</v>
+        <v>-7.564384301467256e-05</v>
       </c>
       <c r="F54">
-        <v>0.005127505406096388</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002729035910084243</v>
+      </c>
+      <c r="G54">
+        <v>-0.02606362986286512</v>
+      </c>
+      <c r="H54">
+        <v>-0.01973668888140129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06477209496430747</v>
+        <v>0.0739630124061951</v>
       </c>
       <c r="C55">
-        <v>-0.0181915327813938</v>
+        <v>0.06742556391847483</v>
       </c>
       <c r="D55">
-        <v>-0.07730606560337107</v>
+        <v>0.005784279143345425</v>
       </c>
       <c r="E55">
-        <v>0.04065622899714007</v>
+        <v>-0.03089787234566817</v>
       </c>
       <c r="F55">
-        <v>0.04863123245663799</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06261152055949515</v>
+      </c>
+      <c r="G55">
+        <v>-0.004520526741052602</v>
+      </c>
+      <c r="H55">
+        <v>-0.004972157193296592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1267247675077549</v>
+        <v>0.1483327482736482</v>
       </c>
       <c r="C56">
-        <v>-0.02446581227263386</v>
+        <v>0.09544086633161182</v>
       </c>
       <c r="D56">
-        <v>-0.09554557659610362</v>
+        <v>0.01596431196917603</v>
       </c>
       <c r="E56">
-        <v>0.09278153056556007</v>
+        <v>-0.04463591637482996</v>
       </c>
       <c r="F56">
-        <v>0.01969985460950397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.104804741806596</v>
+      </c>
+      <c r="G56">
+        <v>0.005864009561625142</v>
+      </c>
+      <c r="H56">
+        <v>0.003293480263949827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0383261530882788</v>
+        <v>0.01566904926791765</v>
       </c>
       <c r="C57">
-        <v>0.002850599599443063</v>
+        <v>0.01109963478056234</v>
       </c>
       <c r="D57">
-        <v>-0.02557737586600992</v>
+        <v>-0.02358032936636723</v>
       </c>
       <c r="E57">
-        <v>-0.04450525921796858</v>
+        <v>0.03215859661222659</v>
       </c>
       <c r="F57">
-        <v>-0.01072666368433286</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01609683188977513</v>
+      </c>
+      <c r="G57">
+        <v>-0.02233596475389079</v>
+      </c>
+      <c r="H57">
+        <v>0.006255315641822807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1651307298368758</v>
+        <v>0.06954803020314999</v>
       </c>
       <c r="C58">
-        <v>0.1107949219145099</v>
+        <v>0.07975394308477084</v>
       </c>
       <c r="D58">
-        <v>-0.1706844549554603</v>
+        <v>-0.0206456633866083</v>
       </c>
       <c r="E58">
-        <v>-0.582181733458678</v>
+        <v>0.9437550059965545</v>
       </c>
       <c r="F58">
-        <v>0.5836363078304537</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2317591911627166</v>
+      </c>
+      <c r="G58">
+        <v>-0.06835714229327307</v>
+      </c>
+      <c r="H58">
+        <v>-0.09642523481363983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1402780086692758</v>
+        <v>0.1485863217228315</v>
       </c>
       <c r="C59">
-        <v>0.07104217567229008</v>
+        <v>-0.215921631804766</v>
       </c>
       <c r="D59">
-        <v>0.1899712314306073</v>
+        <v>0.01842819097920583</v>
       </c>
       <c r="E59">
-        <v>-0.04152893623519879</v>
+        <v>0.01614476993661729</v>
       </c>
       <c r="F59">
-        <v>-0.05362181247221693</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01330093394668066</v>
+      </c>
+      <c r="G59">
+        <v>-0.01765803119359959</v>
+      </c>
+      <c r="H59">
+        <v>-0.002240381586047507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2116547317406922</v>
+        <v>0.294209118638847</v>
       </c>
       <c r="C60">
-        <v>0.03709441581106559</v>
+        <v>0.08113863013112184</v>
       </c>
       <c r="D60">
-        <v>-0.03260626314361704</v>
+        <v>-0.005104157378462682</v>
       </c>
       <c r="E60">
-        <v>-0.1692217697874534</v>
+        <v>0.02564673456671369</v>
       </c>
       <c r="F60">
-        <v>-0.3917929634505408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3927698379345017</v>
+      </c>
+      <c r="G60">
+        <v>0.04722051372120677</v>
+      </c>
+      <c r="H60">
+        <v>-0.06496353194652886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03107195574909693</v>
+        <v>0.03235723326764565</v>
       </c>
       <c r="C61">
-        <v>-0.01022810679622178</v>
+        <v>0.06381024334632339</v>
       </c>
       <c r="D61">
-        <v>-0.05498516132588881</v>
+        <v>-0.004550528953327648</v>
       </c>
       <c r="E61">
-        <v>-0.02956060920776091</v>
+        <v>0.001014717456472768</v>
       </c>
       <c r="F61">
-        <v>-0.05059190481656645</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02793937276496966</v>
+      </c>
+      <c r="G61">
+        <v>-0.01535014356006574</v>
+      </c>
+      <c r="H61">
+        <v>-0.002374990657133217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01707293102573521</v>
+        <v>0.01375868157926793</v>
       </c>
       <c r="C63">
-        <v>-0.009713943769976446</v>
+        <v>0.02772534810333351</v>
       </c>
       <c r="D63">
-        <v>-0.02184144982714219</v>
+        <v>-0.00737747072055308</v>
       </c>
       <c r="E63">
-        <v>-0.00234878579070792</v>
+        <v>-0.01672901454104838</v>
       </c>
       <c r="F63">
-        <v>0.02526570435798587</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006010598912499429</v>
+      </c>
+      <c r="G63">
+        <v>-0.02064666273341894</v>
+      </c>
+      <c r="H63">
+        <v>-0.004903255026323554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04692637663202744</v>
+        <v>0.0470100171667877</v>
       </c>
       <c r="C64">
-        <v>-0.009489660662264986</v>
+        <v>0.03525465986775463</v>
       </c>
       <c r="D64">
-        <v>-0.04122173973374999</v>
+        <v>-0.003992897952557965</v>
       </c>
       <c r="E64">
-        <v>-0.01665476473486952</v>
+        <v>-0.01624751371298242</v>
       </c>
       <c r="F64">
-        <v>-0.01383882979477903</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01493265118189526</v>
+      </c>
+      <c r="G64">
+        <v>-0.01243853745452219</v>
+      </c>
+      <c r="H64">
+        <v>0.03431433336156217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0681911886864378</v>
+        <v>0.078356230560339</v>
       </c>
       <c r="C65">
-        <v>-0.01553708639302084</v>
+        <v>0.06623580559135428</v>
       </c>
       <c r="D65">
-        <v>-0.05452783821045677</v>
+        <v>-0.01453022139941881</v>
       </c>
       <c r="E65">
-        <v>-0.02570621454852465</v>
+        <v>-0.001776207612416871</v>
       </c>
       <c r="F65">
-        <v>-0.05208637520285337</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03814367338984147</v>
+      </c>
+      <c r="G65">
+        <v>-0.00937026280525345</v>
+      </c>
+      <c r="H65">
+        <v>-0.01462774430493126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03974875852847826</v>
+        <v>0.05330510167680551</v>
       </c>
       <c r="C66">
-        <v>-0.001965989379546357</v>
+        <v>0.1177309879086778</v>
       </c>
       <c r="D66">
-        <v>-0.08553423422021265</v>
+        <v>-0.01031527254240211</v>
       </c>
       <c r="E66">
-        <v>-0.02832761895665475</v>
+        <v>0.007174179880848298</v>
       </c>
       <c r="F66">
-        <v>-0.0459169449940704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04861635988650288</v>
+      </c>
+      <c r="G66">
+        <v>-0.002575906994144711</v>
+      </c>
+      <c r="H66">
+        <v>-0.009397899170222324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03916518503939534</v>
+        <v>0.05838148701003012</v>
       </c>
       <c r="C67">
-        <v>-0.0005498036997272472</v>
+        <v>0.024765274137091</v>
       </c>
       <c r="D67">
-        <v>-0.01773694550316935</v>
+        <v>0.007751800389472803</v>
       </c>
       <c r="E67">
-        <v>-0.02112249142601829</v>
+        <v>-0.01020909723889289</v>
       </c>
       <c r="F67">
-        <v>-0.00717081916902943</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.00622572755772904</v>
+      </c>
+      <c r="G67">
+        <v>-0.0204066946352211</v>
+      </c>
+      <c r="H67">
+        <v>-0.01020993630203153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1217704638966203</v>
+        <v>0.1185604917920616</v>
       </c>
       <c r="C68">
-        <v>0.06975993653489497</v>
+        <v>-0.2690970591214213</v>
       </c>
       <c r="D68">
-        <v>0.2098290753147602</v>
+        <v>-0.0002622459944749193</v>
       </c>
       <c r="E68">
-        <v>-0.003992686541593062</v>
+        <v>0.01432756878535956</v>
       </c>
       <c r="F68">
-        <v>-0.005792733561013904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01891044543414823</v>
+      </c>
+      <c r="G68">
+        <v>-0.01793522274332918</v>
+      </c>
+      <c r="H68">
+        <v>0.01556457134107351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05401066447241669</v>
+        <v>0.07624095908984913</v>
       </c>
       <c r="C69">
-        <v>-0.009976301680165433</v>
+        <v>0.05759208529436799</v>
       </c>
       <c r="D69">
-        <v>-0.04313606625988772</v>
+        <v>0.01028275913631693</v>
       </c>
       <c r="E69">
-        <v>0.02491920008501795</v>
+        <v>-0.03576494138354774</v>
       </c>
       <c r="F69">
-        <v>0.01768499112810778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03741308612636387</v>
+      </c>
+      <c r="G69">
+        <v>-0.01181769718103171</v>
+      </c>
+      <c r="H69">
+        <v>-0.01356447327551086</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.113875866544283</v>
+        <v>0.1209177545564483</v>
       </c>
       <c r="C71">
-        <v>0.05517763701342449</v>
+        <v>-0.2261786752369015</v>
       </c>
       <c r="D71">
-        <v>0.2063040161284017</v>
+        <v>0.008691963695037996</v>
       </c>
       <c r="E71">
-        <v>-0.02157481128744293</v>
+        <v>0.02100237522470924</v>
       </c>
       <c r="F71">
-        <v>0.03974761503460269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02385278749223923</v>
+      </c>
+      <c r="G71">
+        <v>-0.03138457707106836</v>
+      </c>
+      <c r="H71">
+        <v>0.03056854574034289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.121745124259224</v>
+        <v>0.08331086215367234</v>
       </c>
       <c r="C72">
-        <v>-0.01122641921314945</v>
+        <v>0.08198439582624116</v>
       </c>
       <c r="D72">
-        <v>-0.1412301734321154</v>
+        <v>0.00991002580120696</v>
       </c>
       <c r="E72">
-        <v>-0.109823429986512</v>
+        <v>-0.02206110364561231</v>
       </c>
       <c r="F72">
-        <v>-0.1756677505753814</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03486132089456865</v>
+      </c>
+      <c r="G72">
+        <v>0.00960722472758167</v>
+      </c>
+      <c r="H72">
+        <v>-0.009947925143170234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2630492789277686</v>
+        <v>0.3990393943982958</v>
       </c>
       <c r="C73">
-        <v>0.09218212739049783</v>
+        <v>0.09510283415007494</v>
       </c>
       <c r="D73">
-        <v>-0.07993238478040871</v>
+        <v>-0.009254708516567376</v>
       </c>
       <c r="E73">
-        <v>-0.247912398051437</v>
+        <v>0.07934685152335651</v>
       </c>
       <c r="F73">
-        <v>-0.3953033522808021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5292568594499271</v>
+      </c>
+      <c r="G73">
+        <v>0.09255262367225203</v>
+      </c>
+      <c r="H73">
+        <v>0.05948620206579132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1146124899959653</v>
+        <v>0.1179493537677309</v>
       </c>
       <c r="C74">
-        <v>-0.01476483000629633</v>
+        <v>0.1141932541112574</v>
       </c>
       <c r="D74">
-        <v>-0.09815163932029057</v>
+        <v>0.01148641372795213</v>
       </c>
       <c r="E74">
-        <v>0.08068313510668054</v>
+        <v>-0.04303511974240105</v>
       </c>
       <c r="F74">
-        <v>0.006144767826025218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07192141423986199</v>
+      </c>
+      <c r="G74">
+        <v>-0.006970515741208708</v>
+      </c>
+      <c r="H74">
+        <v>-4.413237011371401e-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2382427588699724</v>
+        <v>0.259761283273963</v>
       </c>
       <c r="C75">
-        <v>-0.01796506197409115</v>
+        <v>0.1365030047860784</v>
       </c>
       <c r="D75">
-        <v>-0.1553086009026695</v>
+        <v>0.03292108904595815</v>
       </c>
       <c r="E75">
-        <v>0.161556282916785</v>
+        <v>-0.06482864665109565</v>
       </c>
       <c r="F75">
-        <v>0.02100752553996401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2206407432323166</v>
+      </c>
+      <c r="G75">
+        <v>0.03471892602766135</v>
+      </c>
+      <c r="H75">
+        <v>-0.0004131716411309247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2271099180875558</v>
+        <v>0.1486314081437338</v>
       </c>
       <c r="C76">
-        <v>-0.03992205859937905</v>
+        <v>0.1183016296532758</v>
       </c>
       <c r="D76">
-        <v>-0.1582259773385172</v>
+        <v>0.02452983188142482</v>
       </c>
       <c r="E76">
-        <v>0.228930898274829</v>
+        <v>-0.07044137279507164</v>
       </c>
       <c r="F76">
-        <v>0.04313847100036599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1462132550943021</v>
+      </c>
+      <c r="G76">
+        <v>0.002643000948858875</v>
+      </c>
+      <c r="H76">
+        <v>-0.008769029235849714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04133790624078622</v>
+        <v>0.05650073933473372</v>
       </c>
       <c r="C77">
-        <v>-0.0103943311437912</v>
+        <v>0.06206871490737705</v>
       </c>
       <c r="D77">
-        <v>-0.05363030807686556</v>
+        <v>-0.01169578550208374</v>
       </c>
       <c r="E77">
-        <v>-0.07615420484898411</v>
+        <v>0.03155491238934913</v>
       </c>
       <c r="F77">
-        <v>0.1140308987959645</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.006924891643695726</v>
+      </c>
+      <c r="G77">
+        <v>-0.03419070753366434</v>
+      </c>
+      <c r="H77">
+        <v>0.02002695366490084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0297502368534848</v>
+        <v>0.04449934588940826</v>
       </c>
       <c r="C78">
-        <v>-0.01310194646194405</v>
+        <v>0.05394564614838843</v>
       </c>
       <c r="D78">
-        <v>-0.04470521658729802</v>
+        <v>-0.004677299247941681</v>
       </c>
       <c r="E78">
-        <v>-0.06442516994799893</v>
+        <v>0.01583900765809998</v>
       </c>
       <c r="F78">
-        <v>-0.0313462728655819</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04560049638871633</v>
+      </c>
+      <c r="G78">
+        <v>-0.02508392119477452</v>
+      </c>
+      <c r="H78">
+        <v>-0.01141054794537113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1930669155264816</v>
+        <v>0.06943691029299517</v>
       </c>
       <c r="C80">
-        <v>-0.9269352062013823</v>
+        <v>0.07989062011375858</v>
       </c>
       <c r="D80">
-        <v>0.2248740703333959</v>
+        <v>-0.01200953724931214</v>
       </c>
       <c r="E80">
-        <v>-0.1303067788971818</v>
+        <v>-0.07539377310817216</v>
       </c>
       <c r="F80">
-        <v>0.02275211773877503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01325916536793585</v>
+      </c>
+      <c r="G80">
+        <v>-0.9235645248559005</v>
+      </c>
+      <c r="H80">
+        <v>0.2226244846753156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.185084822744241</v>
+        <v>0.1505552294836181</v>
       </c>
       <c r="C81">
-        <v>-0.02413914386800967</v>
+        <v>0.08781069968947733</v>
       </c>
       <c r="D81">
-        <v>-0.1134022248029184</v>
+        <v>0.01845919374374529</v>
       </c>
       <c r="E81">
-        <v>0.1236604594688751</v>
+        <v>-0.04493164921991685</v>
       </c>
       <c r="F81">
-        <v>0.06511189423669089</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1393452451469374</v>
+      </c>
+      <c r="G81">
+        <v>-0.005302048972843654</v>
+      </c>
+      <c r="H81">
+        <v>-0.005508416114195127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03927777882732746</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02965309091350715</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002178127120056841</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.02067858559191088</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002906488794694051</v>
+      </c>
+      <c r="G82">
+        <v>0.0009206636543087632</v>
+      </c>
+      <c r="H82">
+        <v>-0.01659751267195269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03412532921536135</v>
+        <v>0.03047482478985743</v>
       </c>
       <c r="C83">
-        <v>0.002548156426057371</v>
+        <v>0.01990310056369259</v>
       </c>
       <c r="D83">
-        <v>-0.01469609802836852</v>
+        <v>-0.00462387141101891</v>
       </c>
       <c r="E83">
-        <v>-0.03984356528453233</v>
+        <v>0.02314280765633711</v>
       </c>
       <c r="F83">
-        <v>0.01697100545756673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02315553705240908</v>
+      </c>
+      <c r="G83">
+        <v>-0.02507404618424993</v>
+      </c>
+      <c r="H83">
+        <v>-0.01033532021286817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2230231840724242</v>
+        <v>0.2470727899264523</v>
       </c>
       <c r="C85">
-        <v>-0.01538572916221504</v>
+        <v>0.1447395756565364</v>
       </c>
       <c r="D85">
-        <v>-0.1845208192285432</v>
+        <v>0.02232363821929112</v>
       </c>
       <c r="E85">
-        <v>0.1762273787874637</v>
+        <v>-0.107085057810847</v>
       </c>
       <c r="F85">
-        <v>0.04011357884181877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2086081982219919</v>
+      </c>
+      <c r="G85">
+        <v>0.06706836911267974</v>
+      </c>
+      <c r="H85">
+        <v>0.002975685962472046</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01518967947701662</v>
+        <v>0.009909229731936446</v>
       </c>
       <c r="C86">
-        <v>-0.009297506683206152</v>
+        <v>0.02332638341680758</v>
       </c>
       <c r="D86">
-        <v>-0.02413343775610967</v>
+        <v>-0.009345126612941117</v>
       </c>
       <c r="E86">
-        <v>-0.05482023162389024</v>
+        <v>0.01694278494998572</v>
       </c>
       <c r="F86">
-        <v>0.02584622960407632</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02123455681315785</v>
+      </c>
+      <c r="G86">
+        <v>-0.04747480086568319</v>
+      </c>
+      <c r="H86">
+        <v>0.03162592742068978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0284052122318305</v>
+        <v>0.01838590888926399</v>
       </c>
       <c r="C87">
-        <v>-0.009405297741567615</v>
+        <v>0.02652456636896093</v>
       </c>
       <c r="D87">
-        <v>-0.02891410736456692</v>
+        <v>-0.01095115925498014</v>
       </c>
       <c r="E87">
-        <v>-0.105233500608738</v>
+        <v>0.07775855972096661</v>
       </c>
       <c r="F87">
-        <v>-0.0299270178990277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06146379065505991</v>
+      </c>
+      <c r="G87">
+        <v>-0.03837455525057303</v>
+      </c>
+      <c r="H87">
+        <v>0.01083225974431352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04957724027760056</v>
+        <v>0.08312386541448773</v>
       </c>
       <c r="C88">
-        <v>0.00634875489270922</v>
+        <v>0.05192110891968854</v>
       </c>
       <c r="D88">
-        <v>-0.01040675997804286</v>
+        <v>-0.02055728832548172</v>
       </c>
       <c r="E88">
-        <v>0.003183932569367791</v>
+        <v>-0.02047127702607063</v>
       </c>
       <c r="F88">
-        <v>-0.023994871136135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.007512588990193873</v>
+      </c>
+      <c r="G88">
+        <v>-0.0189884460756334</v>
+      </c>
+      <c r="H88">
+        <v>-0.02168552959197421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2230855265507531</v>
+        <v>0.2152711317146661</v>
       </c>
       <c r="C89">
-        <v>0.1330145013018986</v>
+        <v>-0.3792820434639756</v>
       </c>
       <c r="D89">
-        <v>0.351508084976446</v>
+        <v>0.01177204078380874</v>
       </c>
       <c r="E89">
-        <v>0.01237654783251092</v>
+        <v>-0.006817462315080193</v>
       </c>
       <c r="F89">
-        <v>0.005769696714838926</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02554391049783381</v>
+      </c>
+      <c r="G89">
+        <v>-0.0267888763076119</v>
+      </c>
+      <c r="H89">
+        <v>-0.005192281927483453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.138881140854173</v>
+        <v>0.1767961313339362</v>
       </c>
       <c r="C90">
-        <v>0.1156332313834345</v>
+        <v>-0.3398666650207521</v>
       </c>
       <c r="D90">
-        <v>0.3016275059238478</v>
+        <v>0.01354253746010835</v>
       </c>
       <c r="E90">
-        <v>0.0560665575699057</v>
+        <v>0.005271717351823685</v>
       </c>
       <c r="F90">
-        <v>0.05667774566865522</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03987100951813798</v>
+      </c>
+      <c r="G90">
+        <v>-0.003492138685570423</v>
+      </c>
+      <c r="H90">
+        <v>0.00792235713770394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2462537468803613</v>
+        <v>0.215043998374274</v>
       </c>
       <c r="C91">
-        <v>-0.0208312116390504</v>
+        <v>0.1298722945994782</v>
       </c>
       <c r="D91">
-        <v>-0.1898024678269932</v>
+        <v>0.02747027844534455</v>
       </c>
       <c r="E91">
-        <v>0.2395103093350285</v>
+        <v>-0.08830151690276991</v>
       </c>
       <c r="F91">
-        <v>0.03873466784678758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1945768304200735</v>
+      </c>
+      <c r="G91">
+        <v>0.02245664165109285</v>
+      </c>
+      <c r="H91">
+        <v>-0.00170823122927971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2915238568169142</v>
+        <v>0.2130893168799378</v>
       </c>
       <c r="C92">
-        <v>0.1096047010893779</v>
+        <v>-0.2735310029408852</v>
       </c>
       <c r="D92">
-        <v>0.2650743074476264</v>
+        <v>0.05752056803860757</v>
       </c>
       <c r="E92">
-        <v>0.1426268490287439</v>
+        <v>0.0002330892496755148</v>
       </c>
       <c r="F92">
-        <v>0.2419246460626672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1404832889480797</v>
+      </c>
+      <c r="G92">
+        <v>-0.05149919581205155</v>
+      </c>
+      <c r="H92">
+        <v>-0.002041461878829754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2009958767682525</v>
+        <v>0.2022824988073579</v>
       </c>
       <c r="C93">
-        <v>0.1498829530244154</v>
+        <v>-0.3378072065895888</v>
       </c>
       <c r="D93">
-        <v>0.3459917490470845</v>
+        <v>0.02060052201330639</v>
       </c>
       <c r="E93">
-        <v>0.02230135660295228</v>
+        <v>0.01836395112565226</v>
       </c>
       <c r="F93">
-        <v>-0.005428904064012476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01020480949569613</v>
+      </c>
+      <c r="G93">
+        <v>0.003402647267325292</v>
+      </c>
+      <c r="H93">
+        <v>0.03296927506447647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.301490006382325</v>
+        <v>0.2891905552098175</v>
       </c>
       <c r="C94">
-        <v>0.01781919209791369</v>
+        <v>0.1461825898376349</v>
       </c>
       <c r="D94">
-        <v>-0.1723611986815528</v>
+        <v>0.01622468243954888</v>
       </c>
       <c r="E94">
-        <v>0.239866336120502</v>
+        <v>-0.1026918156472175</v>
       </c>
       <c r="F94">
-        <v>0.1211129379387052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3658770641342</v>
+      </c>
+      <c r="G94">
+        <v>0.1251851416185939</v>
+      </c>
+      <c r="H94">
+        <v>-0.2187474804861649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08440329338470552</v>
+        <v>0.07749940939961959</v>
       </c>
       <c r="C95">
-        <v>0.07003170249124471</v>
+        <v>0.08132166210820134</v>
       </c>
       <c r="D95">
-        <v>-0.06192628896668587</v>
+        <v>0.007706864198977213</v>
       </c>
       <c r="E95">
-        <v>-0.01378749246894143</v>
+        <v>0.07690978261634308</v>
       </c>
       <c r="F95">
-        <v>-0.07768046947635454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1400433414848898</v>
+      </c>
+      <c r="G95">
+        <v>0.06590785246917455</v>
+      </c>
+      <c r="H95">
+        <v>0.02714244981631903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2155917947967618</v>
+        <v>0.2156612412998003</v>
       </c>
       <c r="C98">
-        <v>0.06286228151663502</v>
+        <v>0.04258506018156759</v>
       </c>
       <c r="D98">
-        <v>-0.0217905931388022</v>
+        <v>0.02029593803506878</v>
       </c>
       <c r="E98">
-        <v>-0.2478893214834362</v>
+        <v>0.07164505323930216</v>
       </c>
       <c r="F98">
-        <v>-0.355218896158314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2589679894240741</v>
+      </c>
+      <c r="G98">
+        <v>0.02921520750271787</v>
+      </c>
+      <c r="H98">
+        <v>0.03928906064347581</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02792383897201712</v>
+        <v>0.01436872884468695</v>
       </c>
       <c r="C101">
-        <v>-0.003771262888558684</v>
+        <v>0.02013474043525955</v>
       </c>
       <c r="D101">
-        <v>-0.0222960559082824</v>
+        <v>-0.008043717123904677</v>
       </c>
       <c r="E101">
-        <v>-0.1174834028057105</v>
+        <v>0.03361229875625857</v>
       </c>
       <c r="F101">
-        <v>0.1739124618234637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02441100308501208</v>
+      </c>
+      <c r="G101">
+        <v>-0.03145202847194112</v>
+      </c>
+      <c r="H101">
+        <v>-0.0227588482103251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1275985830233995</v>
+        <v>0.1256960391282048</v>
       </c>
       <c r="C102">
-        <v>-0.01077087617102753</v>
+        <v>0.07577732171720812</v>
       </c>
       <c r="D102">
-        <v>-0.083266696990174</v>
+        <v>0.001501966625437284</v>
       </c>
       <c r="E102">
-        <v>0.1076866120282213</v>
+        <v>-0.04713800429249062</v>
       </c>
       <c r="F102">
-        <v>0.03904426766754114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0629711549366032</v>
+      </c>
+      <c r="G102">
+        <v>0.01807028263431052</v>
+      </c>
+      <c r="H102">
+        <v>0.01083609484231165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03251021182216072</v>
+        <v>0.006923917710414501</v>
       </c>
       <c r="C103">
-        <v>-0.01766157534883607</v>
+        <v>0.005907205523462441</v>
       </c>
       <c r="D103">
-        <v>-0.0235327312271625</v>
+        <v>-0.0001588066507736953</v>
       </c>
       <c r="E103">
-        <v>0.01247153548831383</v>
+        <v>-0.001364575032011791</v>
       </c>
       <c r="F103">
-        <v>0.00266612131714804</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01080840334955502</v>
+      </c>
+      <c r="G103">
+        <v>-0.01311704291757635</v>
+      </c>
+      <c r="H103">
+        <v>0.005250899303903434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0476668121135576</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04826157532245146</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9854355671307276</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04438032060409782</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03634439041767305</v>
+      </c>
+      <c r="G104">
+        <v>-0.001200193653967081</v>
+      </c>
+      <c r="H104">
+        <v>-0.09806670365124497</v>
       </c>
     </row>
   </sheetData>
